--- a/excel/policy/gasoline_recycle.xlsx
+++ b/excel/policy/gasoline_recycle.xlsx
@@ -1,33 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jalon/Desktop/181210_最新数据/政策进展数据汇总-统一了名字/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1260C78-08E9-484B-BF73-8BA2AAB76812}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14500" yWindow="-17560" windowWidth="28800" windowHeight="16120"/>
+    <workbookView xWindow="14505" yWindow="-17565" windowWidth="28800" windowHeight="16125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="单位 个" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="368">
   <si>
     <t>北京</t>
   </si>
@@ -1038,21 +1034,6 @@
   </si>
   <si>
     <t>省份</t>
-  </si>
-  <si>
-    <t>2013年</t>
-  </si>
-  <si>
-    <t>2014年</t>
-  </si>
-  <si>
-    <t>2015年</t>
-  </si>
-  <si>
-    <t>2016年</t>
-  </si>
-  <si>
-    <t>2017年</t>
   </si>
   <si>
     <t>河北</t>
@@ -1153,7 +1134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1255,8 +1236,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 2" xfId="1"/>
-    <cellStyle name="常规 3 2" xfId="2"/>
+    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1533,52 +1514,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C143" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:I1048576"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>335</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>341</v>
+      <c r="C1" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2014</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2017</v>
       </c>
       <c r="H1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="I1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1597,7 +1578,7 @@
         <v>116.413387</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1620,12 +1601,12 @@
         <v>117.20952</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1639,12 +1620,12 @@
         <v>114.892574</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1658,12 +1639,12 @@
         <v>117.969396</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1677,12 +1658,12 @@
         <v>119.60853400000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1696,12 +1677,12 @@
         <v>116.690577</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1715,12 +1696,12 @@
         <v>116.84558</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C9" s="1">
         <v>194</v>
@@ -1738,12 +1719,12 @@
         <v>118.186463</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1757,12 +1738,12 @@
         <v>114.54563</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C11" s="1">
         <v>74</v>
@@ -1780,12 +1761,12 @@
         <v>115.67540200000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
@@ -1801,12 +1782,12 @@
         <v>114.511459</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1820,12 +1801,12 @@
         <v>115.47145999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1839,7 +1820,7 @@
         <v>114.521529</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1858,12 +1839,12 @@
         <v>121.48054</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C16" s="1">
         <v>36</v>
@@ -1881,12 +1862,12 @@
         <v>122.21355699999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1900,12 +1881,12 @@
         <v>119.929571</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1919,12 +1900,12 @@
         <v>121.427432</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1938,12 +1919,12 @@
         <v>120.706479</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1957,12 +1938,12 @@
         <v>121.62857200000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C21" s="1">
         <v>42</v>
@@ -1978,12 +1959,12 @@
         <v>118.866597</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1997,12 +1978,12 @@
         <v>120.763549</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2016,12 +1997,12 @@
         <v>120.585477</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C24" s="1">
         <v>257</v>
@@ -2039,12 +2020,12 @@
         <v>119.653441</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2058,12 +2039,12 @@
         <v>120.09451799999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2077,12 +2058,12 @@
         <v>120.21550999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2096,12 +2077,12 @@
         <v>120.167541</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2115,12 +2096,12 @@
         <v>120.592412</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C29" s="1">
         <v>410</v>
@@ -2136,12 +2117,12 @@
         <v>120.901591</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
@@ -2157,12 +2138,12 @@
         <v>119.228623</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2176,12 +2157,12 @@
         <v>118.80242200000001</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C32" s="1">
         <v>256</v>
@@ -2197,12 +2178,12 @@
         <v>119.98148399999999</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2216,12 +2197,12 @@
         <v>119.43049000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2235,12 +2216,12 @@
         <v>119.41942299999999</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C35" s="1">
         <v>198</v>
@@ -2256,12 +2237,12 @@
         <v>119.929571</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2275,12 +2256,12 @@
         <v>120.31858200000001</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2294,12 +2275,12 @@
         <v>119.021483</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C38" s="1">
         <v>151</v>
@@ -2315,12 +2296,12 @@
         <v>118.281575</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C39" s="1">
         <v>245</v>
@@ -2336,12 +2317,12 @@
         <v>117.29057400000001</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2357,12 +2338,12 @@
         <v>113.58255699999999</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2376,12 +2357,12 @@
         <v>114.06455200000001</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C42" s="1">
         <v>321</v>
@@ -2397,12 +2378,12 @@
         <v>114.42355999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2416,12 +2397,12 @@
         <v>113.39942000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2435,12 +2416,12 @@
         <v>113.08855200000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2454,12 +2435,12 @@
         <v>113.75841800000001</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2473,12 +2454,12 @@
         <v>113.271429</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2492,12 +2473,12 @@
         <v>112.47148799999999</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2511,12 +2492,12 @@
         <v>113.12850899999999</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2532,12 +2513,12 @@
         <v>116.688529</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2551,12 +2532,12 @@
         <v>110.365554</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2570,12 +2551,12 @@
         <v>116.129541</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2591,12 +2572,12 @@
         <v>110.931541</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2610,12 +2591,12 @@
         <v>114.707442</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2629,12 +2610,12 @@
         <v>115.38154900000001</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2648,12 +2629,12 @@
         <v>111.98848700000001</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2667,12 +2648,12 @@
         <v>113.062465</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2686,12 +2667,12 @@
         <v>116.62946599999999</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2705,12 +2686,12 @@
         <v>116.37851499999999</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2726,12 +2707,12 @@
         <v>113.60352399999999</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2745,12 +2726,12 @@
         <v>112.051512</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2764,12 +2745,12 @@
         <v>113.631416</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2787,12 +2768,12 @@
         <v>113.199529</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2806,12 +2787,12 @@
         <v>111.20653</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2825,12 +2806,12 @@
         <v>112.459424</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2846,12 +2827,12 @@
         <v>114.399503</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2865,12 +2846,12 @@
         <v>114.314595</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2884,12 +2865,12 @@
         <v>113.248549</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2903,12 +2884,12 @@
         <v>112.534504</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2922,12 +2903,12 @@
         <v>114.09748399999999</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2941,12 +2922,12 @@
         <v>113.85847200000001</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2960,12 +2941,12 @@
         <v>114.703481</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2981,12 +2962,12 @@
         <v>114.303591</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -3000,12 +2981,12 @@
         <v>115.03559300000001</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3021,12 +3002,12 @@
         <v>113.93359700000001</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -3040,12 +3021,12 @@
         <v>114.023419</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3059,12 +3040,12 @@
         <v>115.662449</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3080,12 +3061,12 @@
         <v>114.02846700000001</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1">
@@ -3105,12 +3086,12 @@
         <v>111.755512</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3126,12 +3107,12 @@
         <v>118.895522</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3147,12 +3128,12 @@
         <v>109.84654</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3168,12 +3149,12 @@
         <v>109.787441</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3187,12 +3168,12 @@
         <v>113.13946799999999</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3208,12 +3189,12 @@
         <v>116.054388</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3227,12 +3208,12 @@
         <v>106.80039499999999</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3246,12 +3227,12 @@
         <v>119.772367</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3267,12 +3248,12 @@
         <v>107.3944</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3286,12 +3267,12 @@
         <v>122.250523</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>86</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3307,12 +3288,12 @@
         <v>122.04436099999999</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3326,12 +3307,12 @@
         <v>105.735373</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3345,12 +3326,12 @@
         <v>112.55639600000001</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3364,12 +3345,12 @@
         <v>113.30643600000001</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3383,12 +3364,12 @@
         <v>113.122562</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3402,12 +3383,12 @@
         <v>111.525527</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3421,12 +3402,12 @@
         <v>113.587615</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3440,12 +3421,12 @@
         <v>112.858577</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3459,12 +3440,12 @@
         <v>112.439374</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3478,12 +3459,12 @@
         <v>112.759593</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3499,12 +3480,12 @@
         <v>111.013385</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3520,12 +3501,12 @@
         <v>112.74062000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3539,12 +3520,12 @@
         <v>111.15044899999999</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1">
@@ -3562,12 +3543,12 @@
         <v>117.12639900000001</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C102" s="1">
         <v>239</v>
@@ -3585,12 +3566,12 @@
         <v>120.389458</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3604,12 +3585,12 @@
         <v>118.061455</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3623,12 +3604,12 @@
         <v>117.330539</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3642,12 +3623,12 @@
         <v>121.45441700000001</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3661,12 +3642,12 @@
         <v>119.168374</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -3680,12 +3661,12 @@
         <v>116.593614</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3699,12 +3680,12 @@
         <v>117.094492</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -3718,12 +3699,12 @@
         <v>119.533418</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -3737,12 +3718,12 @@
         <v>118.588463</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -3756,12 +3737,12 @@
         <v>115.99158799999999</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3775,12 +3756,12 @@
         <v>117.9774</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3794,12 +3775,12 @@
         <v>115.487549</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3813,12 +3794,12 @@
         <v>117.68354600000001</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -3832,12 +3813,12 @@
         <v>122.127545</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3851,12 +3832,12 @@
         <v>116.36555300000001</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -3870,12 +3851,12 @@
         <v>118.36353699999999</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1">
@@ -3891,12 +3872,12 @@
         <v>117.233441</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -3912,12 +3893,12 @@
         <v>118.439435</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -3931,12 +3912,12 @@
         <v>118.513581</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -3950,12 +3931,12 @@
         <v>115.78446599999999</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>120</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3969,12 +3950,12 @@
         <v>116.52641199999999</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -3988,12 +3969,12 @@
         <v>118.33940800000001</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4007,12 +3988,12 @@
         <v>117.498424</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -4026,12 +4007,12 @@
         <v>118.76553699999999</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>124</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4045,12 +4026,12 @@
         <v>115.82043400000001</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -4064,12 +4045,12 @@
         <v>116.97054300000001</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>126</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4083,12 +4064,12 @@
         <v>117.39551400000001</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4104,12 +4085,12 @@
         <v>117.00638600000001</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>128</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4123,12 +4104,12 @@
         <v>116.804536</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>129</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -4142,12 +4123,12 @@
         <v>117.81848100000001</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>130</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4161,12 +4142,12 @@
         <v>117.063608</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -4182,12 +4163,12 @@
         <v>118.16808899999999</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -4201,12 +4182,12 @@
         <v>115.86458500000001</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -4220,12 +4201,12 @@
         <v>116.007533</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>134</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -4239,12 +4220,12 @@
         <v>114.92353900000001</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>135</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -4258,12 +4239,12 @@
         <v>117.07557300000001</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>136</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -4277,12 +4258,12 @@
         <v>116.364537</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>137</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -4296,12 +4277,12 @@
         <v>114.94050799999999</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -4315,12 +4296,12 @@
         <v>117.94946299999999</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>139</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -4334,12 +4315,12 @@
         <v>113.86149899999999</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>140</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -4353,12 +4334,12 @@
         <v>115.000514</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>141</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -4372,12 +4353,12 @@
         <v>114.42355999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>142</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -4391,12 +4372,12 @@
         <v>117.184574</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C145" s="1">
         <v>91</v>
@@ -4412,12 +4393,12 @@
         <v>119.30347</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -4433,12 +4414,12 @@
         <v>118.096435</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -4454,12 +4435,12 @@
         <v>118.682444</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>146</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -4473,12 +4454,12 @@
         <v>117.023445</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>147</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -4492,12 +4473,12 @@
         <v>119.55450999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>148</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -4513,12 +4494,12 @@
         <v>119.014521</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>149</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -4532,12 +4513,12 @@
         <v>117.65357899999999</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>150</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -4551,12 +4532,12 @@
         <v>117.645521</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>151</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -4570,12 +4551,12 @@
         <v>118.18437</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>152</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1">
@@ -4591,12 +4572,12 @@
         <v>114.31158600000001</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>153</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -4610,12 +4591,12 @@
         <v>111.292552</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>154</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -4629,12 +4610,12 @@
         <v>112.245519</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
         <v>155</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -4648,12 +4629,12 @@
         <v>115.045529</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
         <v>156</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -4667,12 +4648,12 @@
         <v>114.901611</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
         <v>157</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -4686,12 +4667,12 @@
         <v>113.922512</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
         <v>158</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -4705,12 +4686,12 @@
         <v>114.878489</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -4726,12 +4707,12 @@
         <v>114.328519</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
         <v>160</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -4745,12 +4726,12 @@
         <v>110.804529</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -4766,12 +4747,12 @@
         <v>112.128533</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
         <v>162</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -4785,12 +4766,12 @@
         <v>112.206389</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -4804,12 +4785,12 @@
         <v>113.389448</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
         <v>164</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -4823,12 +4804,12 @@
         <v>109.49459299999999</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>165</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1">
@@ -4844,12 +4825,12 @@
         <v>112.94547</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -4863,12 +4844,12 @@
         <v>113.140474</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>167</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -4882,12 +4863,12 @@
         <v>112.950464</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>168</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -4903,12 +4884,12 @@
         <v>111.705449</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -4922,12 +4903,12 @@
         <v>110.48553200000001</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>170</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -4941,12 +4922,12 @@
         <v>113.135488</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
         <v>171</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -4960,12 +4941,12 @@
         <v>112.57844900000001</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
         <v>172</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -4979,12 +4960,12 @@
         <v>111.47443199999999</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
         <v>173</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -4998,12 +4979,12 @@
         <v>112.36151700000001</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
         <v>174</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -5017,12 +4998,12 @@
         <v>113.021458</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
         <v>175</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -5036,12 +5017,12 @@
         <v>112.001503</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
         <v>176</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -5055,12 +5036,12 @@
         <v>109.74558</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
         <v>177</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -5074,12 +5055,12 @@
         <v>111.619454</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
         <v>178</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -5093,12 +5074,12 @@
         <v>110.00851400000001</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>179</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -5114,12 +5095,12 @@
         <v>108.373454</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>180</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -5135,12 +5116,12 @@
         <v>110.20354500000001</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>181</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -5154,12 +5135,12 @@
         <v>109.126531</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -5173,12 +5154,12 @@
         <v>109.434425</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
         <v>183</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -5194,12 +5175,12 @@
         <v>110.188453</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
         <v>184</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -5213,12 +5194,12 @@
         <v>106.624588</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
         <v>185</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -5232,12 +5213,12 @@
         <v>111.57352400000001</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
         <v>186</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -5251,12 +5232,12 @@
         <v>108.091503</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
         <v>187</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -5270,12 +5251,12 @@
         <v>109.22745500000001</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
         <v>188</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -5289,12 +5270,12 @@
         <v>107.37152</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
         <v>189</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -5308,12 +5289,12 @@
         <v>111.285518</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -5327,12 +5308,12 @@
         <v>108.36042</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
         <v>191</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -5346,12 +5327,12 @@
         <v>108.66058</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
         <v>192</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -5365,12 +5346,12 @@
         <v>109.60551599999999</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>193</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C195" s="1">
         <v>24</v>
@@ -5388,12 +5369,12 @@
         <v>110.325526</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>194</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -5407,12 +5388,12 @@
         <v>109.51855999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>195</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1">
@@ -5432,12 +5413,12 @@
         <v>126.541611</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>196</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -5453,12 +5434,12 @@
         <v>123.92456900000001</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -5476,12 +5457,12 @@
         <v>125.108661</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -5497,12 +5478,12 @@
         <v>129.639544</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
         <v>199</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -5518,12 +5499,12 @@
         <v>130.97561999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="s">
         <v>200</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -5537,12 +5518,12 @@
         <v>130.30443299999999</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
         <v>201</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -5558,12 +5539,12 @@
         <v>131.16534200000001</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
         <v>202</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -5579,12 +5560,12 @@
         <v>128.847544</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="8" t="s">
         <v>203</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -5602,12 +5583,12 @@
         <v>130.327358</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="s">
         <v>204</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -5623,12 +5604,12 @@
         <v>131.01154399999999</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
         <v>205</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -5644,12 +5625,12 @@
         <v>127.535487</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="s">
         <v>206</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -5663,12 +5644,12 @@
         <v>126.975358</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -5682,7 +5663,7 @@
         <v>124.15292700000001</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>208</v>
       </c>
@@ -5705,7 +5686,7 @@
         <v>125.330606</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>209</v>
       </c>
@@ -5726,7 +5707,7 @@
         <v>126.555634</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
         <v>210</v>
       </c>
@@ -5745,7 +5726,7 @@
         <v>124.356483</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
         <v>211</v>
       </c>
@@ -5764,7 +5745,7 @@
         <v>125.150423</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="s">
         <v>212</v>
       </c>
@@ -5783,7 +5764,7 @@
         <v>125.94661000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
         <v>213</v>
       </c>
@@ -5802,7 +5783,7 @@
         <v>126.42962799999999</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="s">
         <v>214</v>
       </c>
@@ -5823,7 +5804,7 @@
         <v>124.83148</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="8" t="s">
         <v>215</v>
       </c>
@@ -5842,7 +5823,7 @@
         <v>122.84558699999999</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="s">
         <v>216</v>
       </c>
@@ -5861,12 +5842,12 @@
         <v>129.477372</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>217</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -5880,12 +5861,12 @@
         <v>123.455986</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>218</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C220" s="1">
         <v>57</v>
@@ -5905,12 +5886,12 @@
         <v>121.621628</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>219</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -5926,12 +5907,12 @@
         <v>123.00137100000001</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>220</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -5945,12 +5926,12 @@
         <v>123.96437299999999</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>221</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -5964,12 +5945,12 @@
         <v>123.69251</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>222</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -5983,12 +5964,12 @@
         <v>121.132599</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>223</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -6004,12 +5985,12 @@
         <v>124.36154999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>224</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -6023,12 +6004,12 @@
         <v>122.241575</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="8" t="s">
         <v>225</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -6044,12 +6025,12 @@
         <v>121.676407</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>226</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -6065,12 +6046,12 @@
         <v>122.07749099999999</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
         <v>227</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -6084,12 +6065,12 @@
         <v>120.84339900000001</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
         <v>228</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -6105,12 +6086,12 @@
         <v>123.24336599999999</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
         <v>229</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -6126,12 +6107,12 @@
         <v>123.732367</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
         <v>230</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -6145,12 +6126,12 @@
         <v>120.45749600000001</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>231</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C233" s="1">
         <v>97</v>
@@ -6170,12 +6151,12 @@
         <v>87.624437999999998</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>232</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -6189,12 +6170,12 @@
         <v>84.895898000000003</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A235" s="8" t="s">
         <v>233</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -6208,12 +6189,12 @@
         <v>89.180436999999998</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>234</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -6227,12 +6208,12 @@
         <v>86.181489999999997</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
         <v>235</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -6246,12 +6227,12 @@
         <v>87.286033000000003</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="s">
         <v>236</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -6267,12 +6248,12 @@
         <v>81.330541999999994</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A239" s="8" t="s">
         <v>237</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -6286,12 +6267,12 @@
         <v>93.523139</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A240" s="8" t="s">
         <v>238</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -6305,12 +6286,12 @@
         <v>82.072909999999993</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A241" s="8" t="s">
         <v>239</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -6324,12 +6305,12 @@
         <v>80.266938999999994</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="42" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A242" s="8" t="s">
         <v>240</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -6343,12 +6324,12 @@
         <v>76.174312999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A243" s="8" t="s">
         <v>241</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -6364,12 +6345,12 @@
         <v>75.996395000000007</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
         <v>242</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -6383,12 +6364,12 @@
         <v>79.928511</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A245" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
@@ -6402,12 +6383,12 @@
         <v>82.987233000000003</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="s">
         <v>244</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
@@ -6421,12 +6402,12 @@
         <v>87.835809999999995</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A247" s="8" t="s">
         <v>245</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
@@ -6440,12 +6421,12 @@
         <v>87.549932999999996</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="s">
         <v>246</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -6459,12 +6440,12 @@
         <v>86.086889999999997</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
         <v>247</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
@@ -6478,12 +6459,12 @@
         <v>103.840524</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>248</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
@@ -6497,12 +6478,12 @@
         <v>102.194603</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>249</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -6516,12 +6497,12 @@
         <v>98.296199999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="8" t="s">
         <v>250</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -6537,12 +6518,12 @@
         <v>98.500681</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="8" t="s">
         <v>251</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -6556,12 +6537,12 @@
         <v>103.21639</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="8" t="s">
         <v>252</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -6575,12 +6556,12 @@
         <v>91.140507999999997</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="8" t="s">
         <v>253</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -6594,12 +6575,12 @@
         <v>104.144447</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="s">
         <v>254</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -6613,12 +6594,12 @@
         <v>105.731421</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="8" t="s">
         <v>255</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
@@ -6632,12 +6613,12 @@
         <v>102.64455599999999</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="8" t="s">
         <v>256</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
@@ -6653,12 +6634,12 @@
         <v>106.67144399999999</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="8" t="s">
         <v>257</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
@@ -6672,12 +6653,12 @@
         <v>100.45640899999999</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="s">
         <v>258</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
@@ -6691,12 +6672,12 @@
         <v>107.649384</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="8" t="s">
         <v>259</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
@@ -6710,12 +6691,12 @@
         <v>104.63241600000001</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="8" t="s">
         <v>260</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
@@ -6729,12 +6710,12 @@
         <v>104.928578</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
         <v>261</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C263" s="1">
         <v>14</v>
@@ -6750,12 +6731,12 @@
         <v>101.784446</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="s">
         <v>262</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
@@ -6769,12 +6750,12 @@
         <v>101.781853</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A265" s="8" t="s">
         <v>263</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
@@ -6788,12 +6769,12 @@
         <v>100.90973700000001</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="s">
         <v>264</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -6807,12 +6788,12 @@
         <v>102.026543</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="8" t="s">
         <v>265</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
@@ -6826,12 +6807,12 @@
         <v>100.61898600000001</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A268" s="8" t="s">
         <v>266</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
@@ -6845,12 +6826,12 @@
         <v>100.25159600000001</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A269" s="8" t="s">
         <v>267</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
@@ -6864,12 +6845,12 @@
         <v>101.78344</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="8" t="s">
         <v>268</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
@@ -6883,12 +6864,12 @@
         <v>93.340123000000006</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
         <v>269</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
@@ -6902,12 +6883,12 @@
         <v>106.238496</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
         <v>270</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
@@ -6923,12 +6904,12 @@
         <v>106.390597</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="8" t="s">
         <v>271</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
@@ -6942,12 +6923,12 @@
         <v>106.248575</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="8" t="s">
         <v>272</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
@@ -6961,12 +6942,12 @@
         <v>106.205367</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A275" s="8" t="s">
         <v>273</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
@@ -6980,12 +6961,12 @@
         <v>105.203568</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
         <v>274</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C276" s="1">
         <v>475</v>
@@ -7003,12 +6984,12 @@
         <v>108.946465</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
         <v>275</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
@@ -7024,12 +7005,12 @@
         <v>108.71542100000001</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
         <v>276</v>
       </c>
       <c r="B278" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
@@ -7045,12 +7026,12 @@
         <v>108.952403</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
         <v>277</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
@@ -7064,12 +7045,12 @@
         <v>109.496579</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
         <v>278</v>
       </c>
       <c r="B280" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
@@ -7083,12 +7064,12 @@
         <v>107.24457200000001</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
         <v>279</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
@@ -7104,12 +7085,12 @@
         <v>109.516593</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="8" t="s">
         <v>280</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
@@ -7123,12 +7104,12 @@
         <v>107.029427</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A283" s="8" t="s">
         <v>281</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
@@ -7142,12 +7123,12 @@
         <v>109.741618</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A284" s="8" t="s">
         <v>282</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
@@ -7161,12 +7142,12 @@
         <v>109.03560400000001</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="8" t="s">
         <v>283</v>
       </c>
       <c r="B285" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
@@ -7182,12 +7163,12 @@
         <v>109.924415</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
         <v>284</v>
       </c>
       <c r="B286" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C286" s="1">
         <v>726</v>
@@ -7203,12 +7184,12 @@
         <v>104.08153</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
         <v>285</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
@@ -7224,12 +7205,12 @@
         <v>104.68556</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
         <v>286</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
@@ -7243,12 +7224,12 @@
         <v>104.64940300000001</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
         <v>287</v>
       </c>
       <c r="B289" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
@@ -7262,12 +7243,12 @@
         <v>101.725544</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
         <v>288</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
@@ -7283,12 +7264,12 @@
         <v>105.448526</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
         <v>289</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
@@ -7302,12 +7283,12 @@
         <v>104.78444500000001</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
         <v>290</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
@@ -7323,12 +7304,12 @@
         <v>104.404417</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A293" s="8" t="s">
         <v>291</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
@@ -7344,12 +7325,12 @@
         <v>105.599424</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A294" s="8" t="s">
         <v>292</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
@@ -7363,12 +7344,12 @@
         <v>105.06459099999999</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A295" s="8" t="s">
         <v>293</v>
       </c>
       <c r="B295" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
@@ -7382,12 +7363,12 @@
         <v>103.77254000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A296" s="8" t="s">
         <v>294</v>
       </c>
       <c r="B296" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
@@ -7401,12 +7382,12 @@
         <v>103.856567</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A297" s="8" t="s">
         <v>295</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
@@ -7420,12 +7401,12 @@
         <v>106.639554</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A298" s="8" t="s">
         <v>296</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
@@ -7439,12 +7420,12 @@
         <v>107.474592</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="8" t="s">
         <v>297</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
@@ -7460,12 +7441,12 @@
         <v>104.63443700000001</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A300" s="8" t="s">
         <v>298</v>
       </c>
       <c r="B300" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
@@ -7479,12 +7460,12 @@
         <v>105.850419</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
         <v>299</v>
       </c>
       <c r="B301" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
@@ -7498,12 +7479,12 @@
         <v>106.117504</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A302" s="8" t="s">
         <v>300</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
@@ -7517,12 +7498,12 @@
         <v>106.751582</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A303" s="8" t="s">
         <v>301</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
@@ -7536,12 +7517,12 @@
         <v>102.231416</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A304" s="8" t="s">
         <v>302</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
@@ -7555,12 +7536,12 @@
         <v>101.96854500000001</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A305" s="8" t="s">
         <v>303</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
@@ -7574,12 +7555,12 @@
         <v>102.27350199999999</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A306" s="8" t="s">
         <v>304</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
@@ -7593,7 +7574,7 @@
         <v>103.049539</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="s">
         <v>305</v>
       </c>
@@ -7616,12 +7597,12 @@
         <v>106.558437</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
         <v>306</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C308" s="1"/>
       <c r="D308" s="1">
@@ -7639,12 +7620,12 @@
         <v>106.63658</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A309" s="8" t="s">
         <v>307</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
@@ -7658,12 +7639,12 @@
         <v>105.95441599999999</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A310" s="8" t="s">
         <v>308</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
@@ -7677,12 +7658,12 @@
         <v>109.18743600000001</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A311" s="8" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
@@ -7696,12 +7677,12 @@
         <v>104.91249000000001</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A312" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
@@ -7715,12 +7696,12 @@
         <v>107.989447</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A313" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
@@ -7734,12 +7715,12 @@
         <v>107.5284</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
         <v>309</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
@@ -7753,12 +7734,12 @@
         <v>106.933426</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A315" s="8" t="s">
         <v>310</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
@@ -7772,12 +7753,12 @@
         <v>104.837553</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A316" s="8" t="s">
         <v>311</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
@@ -7791,12 +7772,12 @@
         <v>105.31158000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
         <v>312</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
@@ -7812,12 +7793,12 @@
         <v>102.852451</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
         <v>313</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
@@ -7831,12 +7812,12 @@
         <v>103.802436</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A319" s="8" t="s">
         <v>314</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
@@ -7852,12 +7833,12 @@
         <v>99.177276000000006</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A320" s="8" t="s">
         <v>315</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
@@ -7871,12 +7852,12 @@
         <v>100.232462</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A321" s="8" t="s">
         <v>316</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
@@ -7890,12 +7871,12 @@
         <v>100.27458300000001</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A322" s="8" t="s">
         <v>317</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
@@ -7909,12 +7890,12 @@
         <v>100.803443</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
         <v>318</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
@@ -7928,12 +7909,12 @@
         <v>102.553557</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A324" s="8" t="s">
         <v>319</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
@@ -7947,12 +7928,12 @@
         <v>100.98349899999999</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A325" s="8" t="s">
         <v>320</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
@@ -7966,12 +7947,12 @@
         <v>100.095443</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A326" s="8" t="s">
         <v>321</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
@@ -7985,12 +7966,12 @@
         <v>104.222573</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A327" s="8" t="s">
         <v>322</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
@@ -8004,12 +7985,12 @@
         <v>101.534412</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A328" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
@@ -8023,12 +8004,12 @@
         <v>99.709530999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A329" s="8" t="s">
         <v>324</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
@@ -8042,12 +8023,12 @@
         <v>103.72351</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A330" s="8" t="s">
         <v>325</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
@@ -8061,12 +8042,12 @@
         <v>103.381552</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A331" s="8" t="s">
         <v>326</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
@@ -8080,12 +8061,12 @@
         <v>98.591356000000005</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A332" s="8" t="s">
         <v>327</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
@@ -8099,12 +8080,12 @@
         <v>98.863291000000004</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
         <v>328</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
@@ -8118,12 +8099,12 @@
         <v>91.120823000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A334" s="8" t="s">
         <v>329</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
@@ -8137,12 +8118,12 @@
         <v>97.174824999999998</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A335" s="8" t="s">
         <v>330</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
@@ -8156,12 +8137,12 @@
         <v>91.778678999999997</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A336" s="8" t="s">
         <v>331</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
@@ -8175,12 +8156,12 @@
         <v>88.902951999999999</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A337" s="8" t="s">
         <v>332</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
@@ -8194,12 +8175,12 @@
         <v>91.134439999999998</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A338" s="8" t="s">
         <v>333</v>
       </c>
       <c r="B338" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
@@ -8213,12 +8194,12 @@
         <v>80.112780999999998</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A339" s="8" t="s">
         <v>334</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
@@ -8235,5 +8216,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>